--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E019E-55F2-45A2-9F7B-CA7F4FDA59EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E941FF9-1074-4356-A0CF-806DB6641AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>lr_sch_sth_impact_202401_2_child</t>
-  </si>
-  <si>
     <t>p_subdistrict</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>p_water_fish</t>
   </si>
   <si>
-    <t>lr_p_202401</t>
-  </si>
-  <si>
     <t>Select the district</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>. &gt;= 10 and . &lt;= 14</t>
   </si>
   <si>
-    <t>Age must be between 10 and 15 years old</t>
-  </si>
-  <si>
     <t>Do not remember</t>
   </si>
   <si>
@@ -390,10 +381,19 @@
     <t>${p_consent} = 'Yes' and ${p_assent} = 'Yes' and ${p_always_lived} = 'No'</t>
   </si>
   <si>
-    <t xml:space="preserve">(2024 Jan) - 2. SCH/STH – Participant data entry form </t>
-  </si>
-  <si>
     <t>Cannot remember</t>
+  </si>
+  <si>
+    <t>lr_p_202401_v12</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 2. SCH/STH – Participant data entry form V1.2</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_2_child_v1_2</t>
+  </si>
+  <si>
+    <t>Age must be between 10 and 14 years old</t>
   </si>
 </sst>
 </file>
@@ -907,11 +907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1048,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1070,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1132,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>65</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>42</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>42</v>
@@ -1248,13 +1248,13 @@
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
@@ -1271,7 +1271,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>54</v>
@@ -1280,10 +1280,10 @@
       <c r="F15" s="20"/>
       <c r="G15" s="10"/>
       <c r="H15" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>10</v>
@@ -1302,18 +1302,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
@@ -1330,14 +1330,14 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="18"/>
       <c r="H17" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
@@ -1351,10 +1351,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>43</v>
@@ -1363,7 +1363,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="18"/>
       <c r="H18" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
@@ -1377,17 +1377,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="18"/>
       <c r="H19" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
@@ -1398,20 +1398,20 @@
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="18"/>
       <c r="H20" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="9" t="s">
@@ -1425,17 +1425,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="18"/>
       <c r="H21" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9" t="s">
@@ -1446,20 +1446,20 @@
     </row>
     <row r="22" spans="1:12" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="18"/>
       <c r="H22" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9" t="s">
@@ -1473,17 +1473,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="18"/>
       <c r="H23" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9" t="s">
@@ -1497,17 +1497,17 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="18"/>
       <c r="H24" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9" t="s">
@@ -1531,12 +1531,10 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
@@ -1622,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1689,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>35</v>
@@ -1702,7 +1700,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -1713,46 +1711,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,7 +3434,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3458,10 +3456,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E941FF9-1074-4356-A0CF-806DB6641AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBDB23F-AC7A-479F-8388-8E7A0754EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Good morning ! I am here on behalf of the Ministry of Health. We are conducting a survey to determine the presence of schistosomiasis (SCH) and soil-transmitted helminthiasis (STH) in your school. I will ask you some questions about the mode and mechanism of transmission and would also appreciate collecting stool and urine samples from you. If you would like to participate in the survey, let me know and I will record your responses and provide you with stool and urine containers. If you agree, the survey will only take a few minutes. Participating in the school survey will directly benefit you because if worms are diagnosed, you will immediately receive deworming medication. Your community and school will also benefit directly, as the results of this survey will help the Ministry of Health implement deworming activities for children aged 5 to 14 years, if laboratory results reveal the need for interventions. You can refuse without penalty. Would you like to participate in our survey?</t>
-  </si>
-  <si>
     <t>You have just entered a value which will end the survey</t>
   </si>
   <si>
@@ -384,16 +381,19 @@
     <t>Cannot remember</t>
   </si>
   <si>
-    <t>lr_p_202401_v12</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant data entry form V1.2</t>
-  </si>
-  <si>
-    <t>lr_sch_sth_impact_202401_2_child_v1_2</t>
-  </si>
-  <si>
     <t>Age must be between 10 and 14 years old</t>
+  </si>
+  <si>
+    <t>Good morning ! I am here on behalf of the Ministry of Health. We are conducting a survey to determine the presence of schistosomiasis (SCH) and soil-transmitted helminthiasis (STH) in your school. I will ask you some questions about the mode and mechanism of transmission and would also appreciate collecting stool and urine samples from you. If you would like to participate in the survey, let me know and I will record your responses and provide you with stool and urine containers. If you agree, the survey will only take a few minutes. Participating in the school survey will directly benefit you because if worms are diagnosed, you will immediately receive deworming medication. Your community and school will also benefit directly, as the results of this survey will help the Ministry of Health implement deworming activities for children aged 10 to 14 years, if laboratory results reveal the need for interventions. You can refuse without penalty. Would you like to participate in our survey?</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 2. SCH/STH – Participant data entry form V2</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_2_child_v2</t>
+  </si>
+  <si>
+    <t>lr_p_202401_v2</t>
   </si>
 </sst>
 </file>
@@ -908,10 +908,10 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -938,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>4</v>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -979,17 +979,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1048,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1070,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="24"/>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1161,7 +1161,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="11" spans="1:13" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1181,7 +1181,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1240,21 +1240,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="H14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
@@ -1268,22 +1268,22 @@
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="10"/>
       <c r="H15" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>10</v>
@@ -1302,18 +1302,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
@@ -1330,14 +1330,14 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="18"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
@@ -1351,19 +1351,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="18"/>
       <c r="H18" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
@@ -1377,17 +1377,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="18"/>
       <c r="H19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
@@ -1398,20 +1398,20 @@
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="18"/>
       <c r="H20" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="9" t="s">
@@ -1425,17 +1425,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="18"/>
       <c r="H21" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9" t="s">
@@ -1446,20 +1446,20 @@
     </row>
     <row r="22" spans="1:12" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="18"/>
       <c r="H22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9" t="s">
@@ -1473,17 +1473,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="18"/>
       <c r="H23" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9" t="s">
@@ -1497,17 +1497,17 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="18"/>
       <c r="H24" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9" t="s">
@@ -1524,14 +1524,14 @@
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
@@ -1546,7 +1546,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,15 +1681,15 @@
         <v>30</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>35</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -1711,46 +1711,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3434,12 +3434,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_2_child.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBDB23F-AC7A-479F-8388-8E7A0754EFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A87C03-321F-4FFC-BEDC-506DEA3E3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>p_subdistrict</t>
-  </si>
-  <si>
     <t>p_school_name</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Select the district</t>
   </si>
   <si>
-    <t>Select the sub-district</t>
-  </si>
-  <si>
     <t>Select the school name</t>
   </si>
   <si>
@@ -387,13 +381,19 @@
     <t>Good morning ! I am here on behalf of the Ministry of Health. We are conducting a survey to determine the presence of schistosomiasis (SCH) and soil-transmitted helminthiasis (STH) in your school. I will ask you some questions about the mode and mechanism of transmission and would also appreciate collecting stool and urine samples from you. If you would like to participate in the survey, let me know and I will record your responses and provide you with stool and urine containers. If you agree, the survey will only take a few minutes. Participating in the school survey will directly benefit you because if worms are diagnosed, you will immediately receive deworming medication. Your community and school will also benefit directly, as the results of this survey will help the Ministry of Health implement deworming activities for children aged 10 to 14 years, if laboratory results reveal the need for interventions. You can refuse without penalty. Would you like to participate in our survey?</t>
   </si>
   <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant data entry form V2</t>
-  </si>
-  <si>
-    <t>lr_sch_sth_impact_202401_2_child_v2</t>
-  </si>
-  <si>
-    <t>lr_p_202401_v2</t>
+    <t>p_location</t>
+  </si>
+  <si>
+    <t>Select the location</t>
+  </si>
+  <si>
+    <t>lr_p_202401_v2_1</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 2. SCH/STH – Participant data entry form V2.1</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_2_child_v2_1</t>
   </si>
 </sst>
 </file>
@@ -907,11 +907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="B11:C11"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -1048,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -1070,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -1127,12 +1127,12 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>64</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>41</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>41</v>
@@ -1248,13 +1248,13 @@
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
@@ -1271,7 +1271,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>53</v>
@@ -1280,10 +1280,10 @@
       <c r="F15" s="20"/>
       <c r="G15" s="10"/>
       <c r="H15" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>10</v>
@@ -1302,18 +1302,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
@@ -1330,14 +1330,14 @@
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="18"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
@@ -1351,10 +1351,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>42</v>
@@ -1363,7 +1363,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="18"/>
       <c r="H18" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
@@ -1377,17 +1377,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="18"/>
       <c r="H19" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
@@ -1398,20 +1398,20 @@
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="18"/>
       <c r="H20" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="9" t="s">
@@ -1425,17 +1425,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="18"/>
       <c r="H21" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9" t="s">
@@ -1446,20 +1446,20 @@
     </row>
     <row r="22" spans="1:12" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="18"/>
       <c r="H22" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9" t="s">
@@ -1473,17 +1473,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="18"/>
       <c r="H23" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9" t="s">
@@ -1497,17 +1497,17 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="18"/>
       <c r="H24" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9" t="s">
@@ -1531,7 +1531,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>35</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -1711,46 +1711,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
